--- a/study/data/stats/generated/stats-susan.xlsx
+++ b/study/data/stats/generated/stats-susan.xlsx
@@ -15,6 +15,8 @@
     <sheet name="a_a_s_f_e_d" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="p_c_f_m_a" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="t_s_e_l_t_s_e_l" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="e_r_l" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="e_r_m" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -759,6 +761,699 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
+    <col width="18" customWidth="1" min="12" max="12"/>
+    <col width="18" customWidth="1" min="13" max="13"/>
+    <col width="18" customWidth="1" min="14" max="14"/>
+    <col width="18" customWidth="1" min="15" max="15"/>
+    <col width="18" customWidth="1" min="16" max="16"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Evaluation Results Mode3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>tag_eval</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>phase2-vanilla-mode3-01</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>phase2-base-mode3-01</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>phase2-ext-mode3-01</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>phase2-vanilla4-mode3-01</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>phase2-vanilla4o-mode3-01</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>metric</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>agreement_percentage</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>weighted_agreement_score</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>total_count</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>agreement_percentage</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>weighted_agreement_score</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>total_count</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>agreement_percentage</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>weighted_agreement_score</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>total_count</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>agreement_percentage</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>weighted_agreement_score</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>total_count</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>agreement_percentage</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>weighted_agreement_score</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>total_count</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>40.88</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5861</v>
+      </c>
+      <c r="E6" t="n">
+        <v>54.19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3866</v>
+      </c>
+      <c r="H6" t="n">
+        <v>44.96</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3912</v>
+      </c>
+      <c r="K6" t="n">
+        <v>79.43000000000001</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2309</v>
+      </c>
+      <c r="N6" t="n">
+        <v>82.23</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>interested</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>42.56</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D7" t="n">
+        <v>733</v>
+      </c>
+      <c r="E7" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G7" t="n">
+        <v>482</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>485</v>
+      </c>
+      <c r="K7" t="n">
+        <v>65.62</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="M7" t="n">
+        <v>288</v>
+      </c>
+      <c r="N7" t="n">
+        <v>60.16</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>tennis</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>732</v>
+      </c>
+      <c r="E8" t="n">
+        <v>34.66</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G8" t="n">
+        <v>476</v>
+      </c>
+      <c r="H8" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J8" t="n">
+        <v>485</v>
+      </c>
+      <c r="K8" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M8" t="n">
+        <v>288</v>
+      </c>
+      <c r="N8" t="n">
+        <v>88.28</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="P8" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>tennis-arrangements</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D9" t="n">
+        <v>733</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G9" t="n">
+        <v>490</v>
+      </c>
+      <c r="H9" t="n">
+        <v>50</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>516</v>
+      </c>
+      <c r="K9" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M9" t="n">
+        <v>289</v>
+      </c>
+      <c r="N9" t="n">
+        <v>92.77</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="P9" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>tennis-organising</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>38.34</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D10" t="n">
+        <v>733</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G10" t="n">
+        <v>486</v>
+      </c>
+      <c r="H10" t="n">
+        <v>51.13</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="J10" t="n">
+        <v>485</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="M10" t="n">
+        <v>289</v>
+      </c>
+      <c r="N10" t="n">
+        <v>91.02</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="P10" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>urgency</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>74.62</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D11" t="n">
+        <v>733</v>
+      </c>
+      <c r="E11" t="n">
+        <v>88.31999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G11" t="n">
+        <v>488</v>
+      </c>
+      <c r="H11" t="n">
+        <v>67.22</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J11" t="n">
+        <v>485</v>
+      </c>
+      <c r="K11" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="M11" t="n">
+        <v>289</v>
+      </c>
+      <c r="N11" t="n">
+        <v>98.83</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P11" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>work-logistics</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>53.21</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D12" t="n">
+        <v>733</v>
+      </c>
+      <c r="E12" t="n">
+        <v>70.04000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>484</v>
+      </c>
+      <c r="H12" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>485</v>
+      </c>
+      <c r="K12" t="n">
+        <v>86.51000000000001</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M12" t="n">
+        <v>289</v>
+      </c>
+      <c r="N12" t="n">
+        <v>87.89</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="P12" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>work-pers</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>37.07</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D13" t="n">
+        <v>731</v>
+      </c>
+      <c r="E13" t="n">
+        <v>45.78</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G13" t="n">
+        <v>474</v>
+      </c>
+      <c r="H13" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J13" t="n">
+        <v>485</v>
+      </c>
+      <c r="K13" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="M13" t="n">
+        <v>288</v>
+      </c>
+      <c r="N13" t="n">
+        <v>51.56</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>work-relevant</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>43.66</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D14" t="n">
+        <v>733</v>
+      </c>
+      <c r="E14" t="n">
+        <v>75.31</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G14" t="n">
+        <v>486</v>
+      </c>
+      <c r="H14" t="n">
+        <v>69.34</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J14" t="n">
+        <v>486</v>
+      </c>
+      <c r="K14" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="M14" t="n">
+        <v>289</v>
+      </c>
+      <c r="N14" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P14" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>agreement_percentage</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Percentage of items in the data set that are AGREE (evaluation_agreement_int = 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>weighted_agreement_score</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Weighted average of Agreement Score, based on evaluation_agreement_int</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>total_count</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Total number of items in data set</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>interpretation</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>This is the aggregated synthetic evaluation of the ML classification for mode 3 evaluations, which use an Agree/Disagree-based evaluation.  An Agreement Score of close to 1 means the ML classifications have been evaluated to be mostly correct, while a score close to 0 means that they have been evaluated as mostly incorrect.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="N3:P3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -25945,4 +26640,1236 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AE21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
+    <col width="18" customWidth="1" min="12" max="12"/>
+    <col width="18" customWidth="1" min="13" max="13"/>
+    <col width="18" customWidth="1" min="14" max="14"/>
+    <col width="18" customWidth="1" min="15" max="15"/>
+    <col width="18" customWidth="1" min="16" max="16"/>
+    <col width="18" customWidth="1" min="17" max="17"/>
+    <col width="18" customWidth="1" min="18" max="18"/>
+    <col width="18" customWidth="1" min="19" max="19"/>
+    <col width="18" customWidth="1" min="20" max="20"/>
+    <col width="18" customWidth="1" min="21" max="21"/>
+    <col width="18" customWidth="1" min="22" max="22"/>
+    <col width="18" customWidth="1" min="23" max="23"/>
+    <col width="18" customWidth="1" min="24" max="24"/>
+    <col width="18" customWidth="1" min="25" max="25"/>
+    <col width="18" customWidth="1" min="26" max="26"/>
+    <col width="18" customWidth="1" min="27" max="27"/>
+    <col width="18" customWidth="1" min="28" max="28"/>
+    <col width="18" customWidth="1" min="29" max="29"/>
+    <col width="18" customWidth="1" min="30" max="30"/>
+    <col width="18" customWidth="1" min="31" max="31"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Evaluation Results Likert</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>tag_eval</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>phase2-vanilla-mode1-01</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>phase2-vanilla-mode1-02</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>phase2-vanilla-mode2-01</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>phase2-base-mode2-01</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="inlineStr">
+        <is>
+          <t>phase2-vanilla4-mode2-01</t>
+        </is>
+      </c>
+      <c r="W3" s="2" t="n"/>
+      <c r="X3" s="2" t="n"/>
+      <c r="Y3" s="2" t="n"/>
+      <c r="Z3" s="2" t="n"/>
+      <c r="AA3" s="2" t="inlineStr">
+        <is>
+          <t>phase2-vanilla4o-mode2-01</t>
+        </is>
+      </c>
+      <c r="AB3" s="2" t="n"/>
+      <c r="AC3" s="2" t="n"/>
+      <c r="AD3" s="2" t="n"/>
+      <c r="AE3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>metric</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>mean_likert</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>stddev</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>agreement_percentage</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>weighted_agreement_score</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>total_count</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>mean_likert</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>stddev</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>agreement_percentage</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>weighted_agreement_score</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>total_count</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>mean_likert</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>stddev</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>agreement_percentage</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>weighted_agreement_score</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>total_count</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>mean_likert</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>stddev</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>agreement_percentage</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>weighted_agreement_score</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>total_count</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>mean_likert</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>stddev</t>
+        </is>
+      </c>
+      <c r="X4" s="2" t="inlineStr">
+        <is>
+          <t>agreement_percentage</t>
+        </is>
+      </c>
+      <c r="Y4" s="2" t="inlineStr">
+        <is>
+          <t>weighted_agreement_score</t>
+        </is>
+      </c>
+      <c r="Z4" s="2" t="inlineStr">
+        <is>
+          <t>total_count</t>
+        </is>
+      </c>
+      <c r="AA4" s="2" t="inlineStr">
+        <is>
+          <t>mean_likert</t>
+        </is>
+      </c>
+      <c r="AB4" s="2" t="inlineStr">
+        <is>
+          <t>stddev</t>
+        </is>
+      </c>
+      <c r="AC4" s="2" t="inlineStr">
+        <is>
+          <t>agreement_percentage</t>
+        </is>
+      </c>
+      <c r="AD4" s="2" t="inlineStr">
+        <is>
+          <t>weighted_agreement_score</t>
+        </is>
+      </c>
+      <c r="AE4" s="2" t="inlineStr">
+        <is>
+          <t>total_count</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D6" t="n">
+        <v>59.94</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3220</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I6" t="n">
+        <v>49.24</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3237</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N6" t="n">
+        <v>35.59</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3372</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S6" t="n">
+        <v>79.69</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1689</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X6" t="n">
+        <v>76.14</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1748</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>85.84</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>interested</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D7" t="n">
+        <v>39.85</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F7" t="n">
+        <v>404</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I7" t="n">
+        <v>45.75</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K7" t="n">
+        <v>400</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N7" t="n">
+        <v>32.07</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="P7" t="n">
+        <v>421</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S7" t="n">
+        <v>53.08</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="U7" t="n">
+        <v>211</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X7" t="n">
+        <v>48.17</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>218</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>62.72</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>tennis</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D8" t="n">
+        <v>55.45</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F8" t="n">
+        <v>404</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I8" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K8" t="n">
+        <v>400</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N8" t="n">
+        <v>35.31</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="P8" t="n">
+        <v>422</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S8" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="U8" t="n">
+        <v>210</v>
+      </c>
+      <c r="V8" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X8" t="n">
+        <v>81.65000000000001</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>218</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>92.01000000000001</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>tennis-arrangements</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F9" t="n">
+        <v>393</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K9" t="n">
+        <v>440</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="P9" t="n">
+        <v>420</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S9" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="U9" t="n">
+        <v>215</v>
+      </c>
+      <c r="V9" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X9" t="n">
+        <v>83.56</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>219</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>96.45</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>tennis-organising</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D10" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F10" t="n">
+        <v>404</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I10" t="n">
+        <v>27.82</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K10" t="n">
+        <v>399</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N10" t="n">
+        <v>35.07</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="P10" t="n">
+        <v>422</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S10" t="n">
+        <v>91</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="U10" t="n">
+        <v>211</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X10" t="n">
+        <v>82.65000000000001</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>219</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>96.45</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>urgency</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D11" t="n">
+        <v>81.93000000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>404</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I11" t="n">
+        <v>73</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K11" t="n">
+        <v>400</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N11" t="n">
+        <v>50.95</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="P11" t="n">
+        <v>422</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S11" t="n">
+        <v>95.79000000000001</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="U11" t="n">
+        <v>214</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X11" t="n">
+        <v>87.67</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>219</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>98.81999999999999</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>work-logistics</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D12" t="n">
+        <v>87.38</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F12" t="n">
+        <v>404</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I12" t="n">
+        <v>75.44</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K12" t="n">
+        <v>399</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N12" t="n">
+        <v>48.46</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="P12" t="n">
+        <v>421</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S12" t="n">
+        <v>96.65000000000001</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="U12" t="n">
+        <v>209</v>
+      </c>
+      <c r="V12" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X12" t="n">
+        <v>87.20999999999999</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>219</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>92.01000000000001</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>work-pers</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D13" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F13" t="n">
+        <v>403</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I13" t="n">
+        <v>66.58</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K13" t="n">
+        <v>398</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N13" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="P13" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S13" t="n">
+        <v>60.29</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="U13" t="n">
+        <v>204</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X13" t="n">
+        <v>54.38</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>217</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>55.33</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>work-relevant</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D14" t="n">
+        <v>88.37</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F14" t="n">
+        <v>404</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I14" t="n">
+        <v>72.81999999999999</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K14" t="n">
+        <v>401</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N14" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="P14" t="n">
+        <v>421</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S14" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="U14" t="n">
+        <v>215</v>
+      </c>
+      <c r="V14" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X14" t="n">
+        <v>83.56</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>219</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>mean_likert</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>The mean value of 'evaluation_likert_val' fopr this data</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>stddev</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Standard deviation of mean_likert data</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>agreement_percentage</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Percentage of evaluation_likert_val in the data set that are AGREE, where agreement is considered to be evaluation_likert_val 4 or 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>weighted_agreement_score</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Weighted average of Agreement Score, where evaluation Likert values are assigned a score: 1: 0, 2: 0.25, 3: 0.5, 4: 0.75, 5: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>total_count</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Total number of items in data set</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>interpretation</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>This is the aggregated synthetic evaluation of the ML classification for modes 1 &amp; 2 evaluations, which use a Likert-based evaluation.  An Agreement Score of close to 1 means the ML classifications have been evaluated to be mostly correct, while a score close to 0 means that they have been evaluated as mostly incorrect.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A1:AE1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>